--- a/0_data/7_models/model_stats.xlsx
+++ b/0_data/7_models/model_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julialauten/DataspellProjects/MusicAI/0_data/7_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8AFB44-D1DF-B846-9D60-AF90D1CC73BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD386FE7-89D5-DF47-A898-479E22A402F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
   <si>
     <t>name</t>
   </si>
@@ -194,7 +194,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="175" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -261,7 +261,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1829,28 +1829,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544AF533-7F68-5544-BBA5-59E0476C0548}">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="6" width="6.1640625" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" customWidth="1"/>
+    <col min="9" max="10" width="6.6640625" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.1640625" customWidth="1"/>
+    <col min="14" max="16" width="6.6640625" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" customWidth="1"/>
+    <col min="19" max="20" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1900,16 +1901,13 @@
         <v>32</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S1" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -1964,11 +1962,8 @@
       <c r="R2">
         <v>1024</v>
       </c>
-      <c r="S2">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -2023,11 +2018,8 @@
       <c r="R3">
         <v>256</v>
       </c>
-      <c r="S3">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -2082,11 +2074,8 @@
       <c r="R4">
         <v>4</v>
       </c>
-      <c r="S4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2141,11 +2130,8 @@
       <c r="R5">
         <v>6</v>
       </c>
-      <c r="S5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2200,11 +2186,8 @@
       <c r="R6">
         <v>0</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -2259,11 +2242,8 @@
       <c r="R7">
         <v>1E-3</v>
       </c>
-      <c r="S7">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2318,11 +2298,8 @@
       <c r="R8">
         <v>100</v>
       </c>
-      <c r="S8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
@@ -2372,16 +2349,13 @@
         <v>4</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R9">
-        <v>8</v>
-      </c>
-      <c r="S9">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
@@ -2431,16 +2405,13 @@
         <v>1214.8441</v>
       </c>
       <c r="Q10" s="4">
-        <v>1262.9795999999999</v>
+        <v>1118.1696999999999</v>
       </c>
       <c r="R10" s="4">
-        <v>1118.1696999999999</v>
-      </c>
-      <c r="S10" s="4">
         <v>1042.0518999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -2490,16 +2461,13 @@
         <v>20.25</v>
       </c>
       <c r="Q11">
-        <v>21.05</v>
+        <v>18.64</v>
       </c>
       <c r="R11">
-        <v>18.64</v>
-      </c>
-      <c r="S11">
         <v>17.37</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -2549,16 +2517,13 @@
         <v>1.11501145362854</v>
       </c>
       <c r="Q12" s="2">
-        <v>1.1188921928405759</v>
+        <v>1.1235401630401609</v>
       </c>
       <c r="R12" s="2">
-        <v>1.1235401630401609</v>
-      </c>
-      <c r="S12" s="2">
         <v>1.1229772567749019</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
@@ -2608,16 +2573,13 @@
         <v>38</v>
       </c>
       <c r="Q13">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R13">
-        <v>40</v>
-      </c>
-      <c r="S13">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
@@ -2667,16 +2629,13 @@
         <v>0.4</v>
       </c>
       <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
         <v>0.6</v>
       </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-      <c r="S14">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
@@ -2726,16 +2685,13 @@
         <v>290.39999999999998</v>
       </c>
       <c r="Q15">
-        <v>269.2</v>
+        <v>287.60000000000002</v>
       </c>
       <c r="R15">
-        <v>287.60000000000002</v>
-      </c>
-      <c r="S15">
         <v>288.2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
@@ -2788,9 +2744,6 @@
         <v>1</v>
       </c>
       <c r="R16">
-        <v>1</v>
-      </c>
-      <c r="S16">
         <v>1</v>
       </c>
     </row>
